--- a/TradingSimula_18-2022/PythonTurt_1R_ver2.xlsx
+++ b/TradingSimula_18-2022/PythonTurt_1R_ver2.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-3239.999999999954</v>
+        <v>-172035.0000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-12199.99999999992</v>
+        <v>-54030.08250000027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-17072.49999999991</v>
+        <v>-144313.6650000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-14164.99999999986</v>
+        <v>-327689.5225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-31197.49999999982</v>
+        <v>-313471.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-35777.4999999998</v>
+        <v>-364513.7375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-46307.49999999977</v>
+        <v>-278037.7875000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-46669.99999999972</v>
+        <v>-279360.1950000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>-21757.49999999972</v>
+        <v>-232185.8450000004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>-4402.499999999722</v>
+        <v>-218154.9200000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>5925.000000000271</v>
+        <v>-212538.9450000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>21850.0000000003</v>
+        <v>-169535.9450000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>9065.000000000327</v>
+        <v>-178668.5775000003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>21167.50000000036</v>
+        <v>-199166.1600000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>33670.00000000038</v>
+        <v>-110994.1350000008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>94807.50000000044</v>
+        <v>-247410.1675000008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>59820.00000000038</v>
+        <v>-459450.9250000011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>58120.00000000042</v>
+        <v>-472900.682500001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>77210.00000000044</v>
+        <v>-403946.8650000016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>56352.50000000042</v>
+        <v>-425215.3150000015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>116442.5000000004</v>
+        <v>-222937.6550000017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>87102.50000000042</v>
+        <v>-247083.8050000015</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>79977.50000000042</v>
+        <v>-249511.8700000015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>95432.50000000041</v>
+        <v>-431385.2200000017</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>82112.50000000047</v>
+        <v>-463847.9700000021</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>76525.00000000048</v>
+        <v>-500630.9100000021</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>67895.00000000041</v>
+        <v>-435369.4175000024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>57395.00000000041</v>
+        <v>-672141.8750000024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>89120.00000000038</v>
+        <v>-538650.6100000025</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>72577.50000000036</v>
+        <v>-607900.6925000027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>68907.50000000038</v>
+        <v>-448637.2425000023</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>82562.50000000035</v>
+        <v>-417701.6500000025</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>114392.5000000003</v>
+        <v>-429682.6825000027</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>105837.5000000004</v>
+        <v>-452413.832500003</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>102650.0000000003</v>
+        <v>-343255.7650000031</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>108950.0000000004</v>
+        <v>-437629.5800000032</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>99727.50000000035</v>
+        <v>-309447.1375000034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>120382.5000000004</v>
+        <v>-432412.3450000037</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>122485.0000000004</v>
+        <v>-420788.4275000037</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>157295.0000000004</v>
+        <v>-571433.8600000036</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>172445.0000000004</v>
+        <v>-485117.1100000036</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>207607.5000000004</v>
+        <v>-531286.5175000037</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>190485.0000000004</v>
+        <v>-195988.650000004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>210395.0000000004</v>
+        <v>-423687.950000004</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>203735.0000000004</v>
+        <v>-497466.4075000039</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>178507.5000000004</v>
+        <v>-283209.3975000041</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>178360.0000000005</v>
+        <v>-348597.1825000039</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>175647.5000000005</v>
+        <v>219677.9824999956</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>158452.5000000005</v>
+        <v>617575.9924999954</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>170247.5000000005</v>
+        <v>843964.1599999954</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>172570.0000000005</v>
+        <v>1198686.877499995</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>168677.5000000005</v>
+        <v>1064978.069999995</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>168537.5000000006</v>
+        <v>999258.0799999951</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>169392.5000000006</v>
+        <v>808430.8224999951</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>164487.5000000006</v>
+        <v>779880.1724999952</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>163837.5000000006</v>
+        <v>333395.2399999961</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>181582.5000000006</v>
+        <v>420898.0924999961</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>179915.0000000006</v>
+        <v>423924.3549999961</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>183262.5000000007</v>
+        <v>818719.7224999964</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>169035.0000000006</v>
+        <v>409825.5649999962</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>172560.0000000007</v>
+        <v>159467.5174999957</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>164472.5000000007</v>
+        <v>453540.9024999961</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>162060.0000000007</v>
+        <v>260900.0024999964</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>151892.5000000007</v>
+        <v>-231643.7800000033</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>144092.5000000007</v>
+        <v>-340703.2625000021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>145285.0000000007</v>
+        <v>-271003.6825000016</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>162492.5000000007</v>
+        <v>-227055.0975000015</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>155767.5000000008</v>
+        <v>-488453.8550000003</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>143082.5000000008</v>
+        <v>-615964.0549999997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>143130.0000000008</v>
+        <v>-578001.1624999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>156565.0000000008</v>
+        <v>-179094.895</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>153647.5000000008</v>
+        <v>313188.6549999997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>148855.0000000008</v>
+        <v>1243160.0975</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>161565.0000000008</v>
+        <v>991863.7725000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>158227.5000000008</v>
+        <v>2251139.0575</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>166372.5000000008</v>
+        <v>5206386.407499999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>160110.0000000008</v>
+        <v>4988418.074999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>152575.0000000008</v>
+        <v>5279394.242499999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>160977.5000000008</v>
+        <v>4661600.334999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>156092.5000000008</v>
+        <v>5224240.7025</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>154455.0000000008</v>
+        <v>4198564.102499999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>160472.5000000008</v>
+        <v>3094792.079999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>179517.5000000009</v>
+        <v>3423855.897499998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>178397.5000000008</v>
+        <v>2975171.632499998</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>174855.0000000009</v>
+        <v>3506260.832499997</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>179960.0000000009</v>
+        <v>3796307.124999997</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>169362.5000000008</v>
+        <v>3902076.189999997</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>164777.5000000008</v>
+        <v>4943107.789999994</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>162042.5000000009</v>
+        <v>4653683.182499993</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>162700.0000000009</v>
+        <v>4262292.174999993</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>168732.5000000009</v>
+        <v>3861932.899999992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>177652.5000000009</v>
+        <v>3541602.824999991</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>171717.5000000009</v>
+        <v>3765344.04249999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>171905.0000000009</v>
+        <v>3571697.634999989</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>167940.000000001</v>
+        <v>3262490.55999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>170680.000000001</v>
+        <v>2660736.227499988</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>167480.000000001</v>
+        <v>3757748.094999988</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>159602.500000001</v>
+        <v>6452336.462499987</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>150240.000000001</v>
+        <v>5859435.592499987</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>144225.0000000011</v>
+        <v>5417529.109999988</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>139255.0000000011</v>
+        <v>3216358.019999987</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>138257.5000000011</v>
+        <v>2694968.579999987</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>147115.0000000011</v>
+        <v>1861578.212499987</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>156052.5000000011</v>
+        <v>4411864.014999986</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>156387.5000000011</v>
+        <v>5461461.209999987</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>151837.5000000011</v>
+        <v>8659284.447499985</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>139907.500000001</v>
+        <v>8786202.029999986</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>147075.000000001</v>
+        <v>9485759.834999986</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>147630.0000000011</v>
+        <v>8505653.474999983</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>146032.5000000011</v>
+        <v>8353024.809999984</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>141587.5000000012</v>
+        <v>8751152.864999983</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>135652.5000000012</v>
+        <v>8528962.182499984</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>140575.0000000012</v>
+        <v>9786528.652499981</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>147517.5000000012</v>
+        <v>9401248.344999982</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>149037.5000000012</v>
+        <v>10320266.45249998</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>163465.0000000012</v>
+        <v>10844839.26249998</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>157585.0000000012</v>
+        <v>10870430.48749998</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>153725.0000000012</v>
+        <v>10277965.71999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>152592.5000000013</v>
+        <v>11187594.15999998</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>151805.0000000013</v>
+        <v>11288945.71999998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>161145.0000000013</v>
+        <v>10556484.56249998</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>152800.0000000013</v>
+        <v>9882812.887499979</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>159210.0000000013</v>
+        <v>9954468.404999981</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>149772.5000000013</v>
+        <v>9955325.047499981</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>163005.0000000013</v>
+        <v>8245659.382499981</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>161820.0000000013</v>
+        <v>7867847.659999979</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>207442.5000000013</v>
+        <v>7069164.649999977</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>223212.5000000013</v>
+        <v>7025064.934999976</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>204942.5000000013</v>
+        <v>8919916.359999973</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>202227.5000000013</v>
+        <v>10557441.21249998</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>192017.5000000013</v>
+        <v>11960032.39999998</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>177842.5000000013</v>
+        <v>14106691.73499997</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>154697.5000000015</v>
+        <v>12585050.94249997</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>161020.0000000015</v>
+        <v>14115055.03749997</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>164452.5000000015</v>
+        <v>15696894.47499998</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>161825.0000000015</v>
+        <v>20697798.59249998</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>173692.5000000015</v>
+        <v>17327737.68499998</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>157227.5000000016</v>
+        <v>17265074.68249998</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>157367.5000000016</v>
+        <v>19020361.72749998</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>155605.0000000016</v>
+        <v>16072586.15749998</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>152477.5000000016</v>
+        <v>22076175.43749997</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>141065.0000000017</v>
+        <v>19668338.85749998</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>126060.0000000017</v>
+        <v>18914798.32249998</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>119510.0000000017</v>
+        <v>20244419.49999998</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>106530.0000000017</v>
+        <v>19875616.42249997</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>96827.50000000179</v>
+        <v>19958597.15749997</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>19033421.43499997</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>18237412.36999997</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20440255.79499997</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>19117295.14749997</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>18912786.80749997</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>19959854.02749997</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>22274089.31499997</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21609333.05999997</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>21288908.42999997</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>22150686.71749997</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21465062.52249997</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22706778.15749997</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>23162490.62249997</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>25785977.84499997</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26552119.03499997</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>28359539.21999997</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27737236.15249997</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>29338135.48999997</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>28962091.29749997</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27113091.47499997</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27211448.15499997</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26980351.75499997</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25909903.10749997</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>26274910.19999997</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>26527311.84999996</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>26121334.91749997</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>25996900.83499997</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>26326282.69249997</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>26138158.86499997</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>26110062.20249997</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27074397.87499997</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27038003.01749998</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>27590586.36749997</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>26457826.94249997</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>26811422.61499997</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>26226209.82749997</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>26252073.42999998</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>25515386.15249998</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>25397200.56999997</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>25680363.23749998</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>26667847.18749998</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>26222729.77499998</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25583407.99749998</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>25618478.91749997</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>26294377.89249998</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>26236993.39249998</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>25900686.71999998</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>26017033.43749998</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>25828802.35499998</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>26417935.83249998</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>25907389.75999998</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>25879917.80749998</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>26767899.85749998</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>26249879.08499998</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>26234531.28249998</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>26510300.40249998</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>27903976.72749998</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>27685160.19249998</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>27438943.70999998</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>27978355.09749998</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>27127529.93249998</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>26869401.31499998</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>26807233.13499999</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>26977913.88749998</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>27596883.79499999</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>28420961.34749999</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>28170951.54499999</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>28284885.34499999</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>28197966.61999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>28429241.00999999</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>27746648.22999999</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>26802636.81499999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>26386155.14999999</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>25726784.39999999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>25055409.93499999</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>24553527.93499999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>25095589.095</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>25612058.00749999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>25720892.28999999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>25487315.0425</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>24598455.46249999</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>24850425.57249999</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>24695605.455</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>24623879.555</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>24260696.98749999</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>23926215.78</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>24691424.3975</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>24333069.4575</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>24700243.2575</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>25831571.035</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>25248777.335</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>25188445.2325</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>24997866.7475</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>25088667.55</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>25422502.86</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>25527120.35</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>27732059.075</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>26881768.375</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>28186285.25</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>28347776.81500001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>31377021.165</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>33935901.425</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>32171542.04500001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>31638564.07750001</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>31039434.91</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>30992821.08750001</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>30412192.31250001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>30364347.32500001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>30851573.68500001</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>30719010.30250001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>31100443.87</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>29993322.60250001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>29903316.08500001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>30174021.03500001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>30197135.23500001</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>29366545.43500001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>28157592.43000001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>27696617.54000001</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>27105587.12500001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>25952049.10000001</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>105355.0000000018</v>
+      <c r="B269" t="n">
+        <v>26795431.22500001</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>26290131.70000001</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>27003898.21750001</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>27711151.26250001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>28397800.87500001</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>28648998.30750001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>27424336.20750001</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>26206588.60000002</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>26625171.70000001</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>27277533.99750002</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>26776587.99500002</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>27044244.19750002</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>26816684.02000002</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>26680918.07000002</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>27465446.23750002</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>26771208.33750002</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>26303704.28000002</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>24971606.87250003</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>24467118.80500003</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>24354466.73000003</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>25061655.71000003</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>23873683.59000003</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>23069220.91750003</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>21849417.32000003</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>22912610.23750003</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>25111280.74000002</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>26192900.66250003</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>25791472.33000003</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>24703687.57250003</v>
       </c>
     </row>
   </sheetData>
